--- a/create cards for OZON WB XLS/data_create_Tanya_Bundles/bundles_create.xlsx
+++ b/create cards for OZON WB XLS/data_create_Tanya_Bundles/bundles_create.xlsx
@@ -1968,7 +1968,7 @@
   <dimension ref="A1:BU1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
